--- a/thesis/results/benchmark.xlsx
+++ b/thesis/results/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\GoLightly\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5342340E-2EB9-4B83-A0DC-8CE3DB48CC8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{7F2893E6-FC17-400E-B7AF-40FDCA17EE2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
@@ -556,6 +556,1046 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$C$1:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4382.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4208.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3518.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2807.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2237.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1739.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1385.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1172.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>943.93100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>788.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>691.18100000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>601.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>522.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>453.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>407.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>376.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>330.90699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>293.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244.834</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>219.78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>206.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>191.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176.703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>162.76599999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140.04400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>114.247</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101.812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96.007999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.3352</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.500900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.130200000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76.444400000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.988600000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65.911799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.466299999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.1282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.0124</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.7196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.372700000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.988199999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.676499999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.531999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44.531100000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.8324</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40.521599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.96</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.110199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36.314</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.535600000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.755299999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.5289</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.680099999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.950700000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.8673</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.428699999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.190899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0C0-477E-A569-803A38DAAB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="447734104"/>
+        <c:axId val="447728856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447734104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447728856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447728856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447734104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EA2D44-7315-429C-B890-D32806C91E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,7 +1897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1759,5 +2801,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>